--- a/Billsupplytemplate.xlsx
+++ b/Billsupplytemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bestbilling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kvrbilling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E71938-6235-45F3-960B-1C5D7714743C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778EC11-90FF-4DB3-8049-AA03DBEBCFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,6 +573,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -598,81 +673,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,6 +690,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295918</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F019B03B-93DF-A85C-1D77-E38BE7C9505C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="3715268" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,7 +1038,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1122,7 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1082,7 +1137,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1097,289 +1152,289 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="43"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -2205,155 +2260,126 @@
       <c r="M70" s="13"/>
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="48"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="20"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="20"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="45"/>
       <c r="M73" s="8"/>
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="20"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="45"/>
       <c r="M74" s="8"/>
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="20"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="45"/>
       <c r="M75" s="8"/>
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="20"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="45"/>
       <c r="M76" s="8"/>
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="23"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:M22"/>
     <mergeCell ref="A74:L74"/>
     <mergeCell ref="A75:L75"/>
     <mergeCell ref="A76:L76"/>
@@ -2363,7 +2389,37 @@
     <mergeCell ref="A71:I71"/>
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>